--- a/src/test/resources/TestData/EquipmentTestdata.xlsx
+++ b/src/test/resources/TestData/EquipmentTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruchika.Behura\git\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95127521-8402-4BCD-AAA2-8EFDE19CB194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7459053B-45C8-4F9D-873B-20B13492DA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EN_002" sheetId="1" r:id="rId1"/>
@@ -24,22 +24,35 @@
     <sheet name="EN_011" sheetId="10" r:id="rId9"/>
     <sheet name="EN_012" sheetId="11" r:id="rId10"/>
     <sheet name="EN_013" sheetId="12" r:id="rId11"/>
-    <sheet name="EEIRTD_006" sheetId="14" r:id="rId12"/>
-    <sheet name="EEIRTD_006A" sheetId="15" r:id="rId13"/>
-    <sheet name="EEVRTL_006" sheetId="16" r:id="rId14"/>
-    <sheet name="EEVRTL_006A" sheetId="17" r:id="rId15"/>
+    <sheet name="EN_028" sheetId="18" r:id="rId12"/>
+    <sheet name="EN_035" sheetId="19" r:id="rId13"/>
+    <sheet name="EEIRTD_006" sheetId="14" r:id="rId14"/>
+    <sheet name="EEIRTD_006A" sheetId="15" r:id="rId15"/>
+    <sheet name="EEVRTL_060" sheetId="16" r:id="rId16"/>
+    <sheet name="EEVRTL_060A" sheetId="17" r:id="rId17"/>
+    <sheet name="EL_002" sheetId="20" r:id="rId18"/>
+    <sheet name="EL_022" sheetId="21" r:id="rId19"/>
+    <sheet name="Sheet3" sheetId="22" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="75">
   <si>
     <t>SerialNo</t>
   </si>
@@ -50,18 +63,6 @@
     <t>ABC12</t>
   </si>
   <si>
-    <t>12@$#%</t>
-  </si>
-  <si>
-    <t>13AB#%$</t>
-  </si>
-  <si>
-    <t>ABC%$$^%</t>
-  </si>
-  <si>
-    <t>#%$^$^67</t>
-  </si>
-  <si>
     <t>Expmsg</t>
   </si>
   <si>
@@ -86,9 +87,6 @@
     <t>Model Number should have at least one letter or one digit</t>
   </si>
   <si>
-    <t>#%$^$^!@#</t>
-  </si>
-  <si>
     <t>ABC_12</t>
   </si>
   <si>
@@ -128,55 +126,167 @@
     <t>ab/1\2</t>
   </si>
   <si>
-    <t>!#@$%12</t>
-  </si>
-  <si>
-    <t>12$%^*&amp;**)</t>
-  </si>
-  <si>
-    <t>AV)(*&amp;^%</t>
-  </si>
-  <si>
-    <t>!@WS$^%&amp;*&amp;()</t>
-  </si>
-  <si>
-    <t>av12^&amp;(*)</t>
-  </si>
-  <si>
-    <t>gsd(*&amp;(*0</t>
-  </si>
-  <si>
     <t>Expalert</t>
   </si>
   <si>
     <t>1234567890123450</t>
   </si>
   <si>
-    <t>#%$^$^!%</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>1~</t>
+  </si>
+  <si>
+    <t>1!</t>
+  </si>
+  <si>
+    <t>1#</t>
+  </si>
+  <si>
+    <t>1$</t>
+  </si>
+  <si>
+    <t>1^</t>
+  </si>
+  <si>
+    <t>1&amp;</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>1()</t>
+  </si>
+  <si>
+    <t>1|</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>1=</t>
+  </si>
+  <si>
+    <t>1{}</t>
+  </si>
+  <si>
+    <t>1"</t>
+  </si>
+  <si>
+    <t>1[]</t>
+  </si>
+  <si>
+    <t>1'</t>
+  </si>
+  <si>
+    <t>1:</t>
+  </si>
+  <si>
+    <t>1;</t>
+  </si>
+  <si>
+    <t>1?</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>1&lt;&gt;</t>
+  </si>
+  <si>
+    <t>!@%</t>
+  </si>
+  <si>
+    <t>1)3&amp;</t>
+  </si>
+  <si>
+    <t>!@$#</t>
+  </si>
+  <si>
+    <t>1$!</t>
+  </si>
+  <si>
+    <t>Etype</t>
+  </si>
+  <si>
+    <t>EMN</t>
+  </si>
+  <si>
+    <t>IRTD</t>
+  </si>
+  <si>
+    <t>001a1</t>
+  </si>
+  <si>
+    <t>0a01</t>
+  </si>
+  <si>
+    <t>090A</t>
+  </si>
+  <si>
+    <t>Serial No. is mandatory, please enter Serial No.</t>
+  </si>
+  <si>
+    <t>EXP Result</t>
+  </si>
+  <si>
+    <t>Model Number is mandatory, please enter Model Number</t>
+  </si>
+  <si>
+    <t>Equipment Type is mandatory, please enter Equipment Type</t>
+  </si>
+  <si>
+    <t>35A2</t>
+  </si>
+  <si>
+    <t>35a2</t>
+  </si>
+  <si>
+    <t>serialNum</t>
+  </si>
+  <si>
+    <t>modelNum</t>
+  </si>
+  <si>
+    <t>EL002</t>
+  </si>
+  <si>
+    <t>EL002A</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>VRT Logger</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>xxx1</t>
+  </si>
+  <si>
+    <t>ab_12</t>
+  </si>
+  <si>
+    <t>ab-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,11 +349,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,13 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -271,21 +374,29 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,22 +692,22 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>38</v>
+      <c r="A2" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>39</v>
+      <c r="A3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -607,10 +718,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608F5166-4DBC-4F84-87F8-0F520A13DC6B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,48 +732,200 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
+      <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3686CE3D-241D-4588-A561-41A66AA08D8E}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{CC349F85-33B2-464B-B6B9-F9E31663BF29}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{145496C8-452C-44FD-855A-F2C96A5E7FF9}"/>
+    <hyperlink ref="A5" r:id="rId2" display="!@$#" xr:uid="{3A4A38C8-1B71-4E55-BA21-7ED821C0604B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -683,17 +946,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>23</v>
+      <c r="A2" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
+      <c r="A3" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -702,43 +965,156 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6B1040-AB76-4D05-80DC-60EDF778BDFB}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D35E30-A15A-40EA-B601-E4DC552B37D8}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="55.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD8AEA3-0A8B-470A-9256-F3BF23B57F96}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6B1040-AB76-4D05-80DC-60EDF778BDFB}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>24</v>
+      <c r="A1" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
+      <c r="A2" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
+      <c r="A3" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="16">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
+      <c r="A5" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
+      <c r="A6" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +1123,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361F6E58-B47C-4C2F-B1E4-874E5E175C82}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection sqref="A1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,108 +1139,253 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D26E0FF4-9DC2-435D-A868-86B764065E0D}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{6729B598-5379-492C-9608-0AB2A513D9DB}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{82925140-8E46-4648-8F2B-8FD615C45908}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE51ED59-5C39-4DDE-B32D-C8011B896DFD}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>24</v>
+      <c r="A1" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
+      <c r="A2" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
+      <c r="A3" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="16">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
+      <c r="A5" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
+      <c r="A6" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -872,12 +1393,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D596FFCF-93ED-4D7E-8FA9-E1A6A58A9B2D}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,76 +1408,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{62E30D92-423F-4A24-ADE1-60FDB39FDC20}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{56F01B17-FADC-4D65-AE57-B61D576B14CD}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{0E293BEA-F78A-4799-97D3-957A7B25462B}"/>
+    <hyperlink ref="A5" r:id="rId2" display="!@$#" xr:uid="{A9A2AAD7-45C8-40E6-BE79-E1969FE4053E}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF2AE9-D561-412F-8DB9-A152688E2AE8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAD2C77-C837-4B36-8EB6-5B16FE058F3C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF36BC8-A82E-49A1-9D77-1DEEFA1C02D4}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,53 +1716,209 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>9</v>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{DE307481-22C7-4D6E-9DA3-4AA59401762B}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{C6C563E6-F789-41BD-B653-34632DE3D52B}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8281339D-4DD0-44C1-A04D-16F95C46E822}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1040,13 +1942,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1071,13 +1973,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
+      <c r="A3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1999,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1122,22 +2024,22 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1147,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD27514-D89E-4AE4-8C56-8723FE613936}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,48 +2063,192 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
+      <c r="A5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0A802B62-1CC6-45F6-9CE7-0ED79ABEC82F}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{90967970-1EBA-4845-B261-818C9DFBCE83}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{32714422-D7B1-4915-8C19-D06231D06B04}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{4AAF2358-AE0C-410D-B1E5-93AB5CAF3452}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1224,17 +2270,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>36</v>
+      <c r="A2" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>20</v>
+      <c r="A3" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1257,17 +2303,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +2325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC702B89-717E-46C8-BB54-259F51569DB4}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1287,42 +2333,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>38</v>
+      <c r="A2" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>39</v>
+      <c r="A3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>16</v>
+      <c r="A6" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
+      <c r="A7" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>19</v>
+      <c r="A8" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
